--- a/public/assets/excel/uploaded/5.xlsx
+++ b/public/assets/excel/uploaded/5.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="500">
   <si>
     <t>Product ID</t>
   </si>
@@ -1476,9 +1476,6 @@
   </si>
   <si>
     <t>찬넬기둥 흑색 길이선택찬넬선반용 35</t>
-  </si>
-  <si>
-    <t>무지주선반지지대 조절식</t>
   </si>
   <si>
     <t>봉걸이일자선반 12인치 백색</t>
@@ -1857,7 +1854,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C501"/>
+  <dimension ref="A1:C500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -7224,51 +7221,51 @@
     </row>
     <row r="488" spans="1:3">
       <c r="A488">
-        <v>2327</v>
+        <v>2329</v>
       </c>
       <c r="B488" t="s">
         <v>487</v>
       </c>
       <c r="C488">
-        <v>2392</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="489" spans="1:3">
       <c r="A489">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="B489" t="s">
         <v>488</v>
       </c>
       <c r="C489">
-        <v>2634</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="A490">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="B490" t="s">
         <v>489</v>
       </c>
       <c r="C490">
-        <v>2790</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="491" spans="1:3">
       <c r="A491">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="B491" t="s">
         <v>490</v>
       </c>
       <c r="C491">
-        <v>3148</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="492" spans="1:3">
       <c r="A492">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="B492" t="s">
         <v>491</v>
@@ -7279,40 +7276,40 @@
     </row>
     <row r="493" spans="1:3">
       <c r="A493">
-        <v>2333</v>
+        <v>2334</v>
       </c>
       <c r="B493" t="s">
         <v>492</v>
       </c>
       <c r="C493">
-        <v>3294</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="494" spans="1:3">
       <c r="A494">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="B494" t="s">
         <v>493</v>
       </c>
       <c r="C494">
-        <v>3454</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="495" spans="1:3">
       <c r="A495">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="B495" t="s">
         <v>494</v>
       </c>
       <c r="C495">
-        <v>3462</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="A496">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="B496" t="s">
         <v>495</v>
@@ -7323,56 +7320,45 @@
     </row>
     <row r="497" spans="1:3">
       <c r="A497">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="B497" t="s">
         <v>496</v>
       </c>
       <c r="C497">
-        <v>3720</v>
+        <v>3971</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498">
-        <v>2338</v>
+        <v>2340</v>
       </c>
       <c r="B498" t="s">
         <v>497</v>
       </c>
       <c r="C498">
-        <v>3971</v>
+        <v>5203</v>
       </c>
     </row>
     <row r="499" spans="1:3">
       <c r="A499">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="B499" t="s">
         <v>498</v>
       </c>
       <c r="C499">
-        <v>5203</v>
+        <v>5716</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="B500" t="s">
         <v>499</v>
       </c>
       <c r="C500">
-        <v>5716</v>
-      </c>
-    </row>
-    <row r="501" spans="1:3">
-      <c r="A501">
-        <v>2342</v>
-      </c>
-      <c r="B501" t="s">
-        <v>500</v>
-      </c>
-      <c r="C501">
         <v>5739</v>
       </c>
     </row>
